--- a/Cmpr_Contct_Camp.xlsx
+++ b/Cmpr_Contct_Camp.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="91">
   <si>
     <t>TestScenarioID</t>
   </si>
@@ -1141,9 +1141,8 @@
       <c r="H32" t="s">
         <v>85</v>
       </c>
-      <c r="I32">
-        <f>SUBTOTAL(109,I2:I31)</f>
-        <v>0</v>
+      <c r="I32" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="33" spans="6:8" hidden="1" x14ac:dyDescent="0.25">
